--- a/configs/xlsx_example.xlsx
+++ b/configs/xlsx_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\apstra-onboarding\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6EF46-07DA-490C-9EF4-00DCCD3EE301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAA32A3-4BE0-4BA2-B9E0-9BC503F2D1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{2DC35BF9-54DF-4FD5-A3EC-E0374136AB36}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>vlan_id</t>
   </si>
@@ -1121,6 +1121,21 @@
           - system: frtrlz-apstra-swlea-011
             vlan_id: 1030
             access_switches: [ swacc-100 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    virtual-networks:
+      - name: VN1
+        routing_zone: PEPSI
+        vlan_id: 300
+        vn_id: 30000
+        ipv4_enabled: True
+        ipv4_subnet: 192.168.77.0/24
+        virtual_gateway_ipv4: 192.168.77.1
+        bound_to:
+          - system: Leaf1
+            vlan_id: 1030
+          - system: Leaf2
+            vlan_id: 1030</t>
   </si>
 </sst>
 </file>
@@ -2315,27 +2330,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB185CA7-BE43-4BB7-AA05-1702ADEACC62}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" style="13" customWidth="1"/>
     <col min="2" max="2" width="66.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="92.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
@@ -2343,7 +2362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
@@ -2359,7 +2378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -2367,7 +2386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
@@ -2375,16 +2394,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>56</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
